--- a/Example Risk & Recovery Estimates.xlsx
+++ b/Example Risk & Recovery Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csage/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csage/Documents/GitHub/showmethemoney/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C913A07-19C6-8749-8B70-BDF2AD7734DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3EB031-E812-8B4A-979B-351B1BA3DCDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -962,7 +962,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <t>Productivity Loss Estimates</t>
   </si>
@@ -1374,9 +1374,6 @@
     <t>Free Security Software from FireEye/Mandiant</t>
   </si>
   <si>
-    <t>https://www.fireeye.com/services/freeware.html</t>
-  </si>
-  <si>
     <t>Especially Redline for triage &amp; analysis</t>
   </si>
   <si>
@@ -1535,6 +1532,18 @@
 Organizations who build their software using open source components should perform security reviews of the platforms they develop and deliver, and to build security best practices into their development process.
 </t>
   </si>
+  <si>
+    <t>Ransomware Control Matrix</t>
+  </si>
+  <si>
+    <t>https://rcxmatrix.org/</t>
+  </si>
+  <si>
+    <t>A framework designed to help organizations identify, assess, and mitigate the risk of ransomware attacks</t>
+  </si>
+  <si>
+    <t>https://fireeye.market/browse?query=freeware</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,7 +1553,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1718,14 +1727,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1958,19 +1959,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1979,54 +1977,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2048,8 +2003,54 @@
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2272,193 +2273,193 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2485,22 +2486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2545,24 +2546,24 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="6"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2593,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2615,10 +2616,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="11">
         <v>45</v>
       </c>
@@ -2632,13 +2633,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2654,10 +2655,10 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="13">
         <v>50000</v>
       </c>
@@ -2671,13 +2672,13 @@
         <v>250000</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2693,10 +2694,10 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="11">
         <v>60</v>
       </c>
@@ -2710,13 +2711,13 @@
         <v>60</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2732,20 +2733,20 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2761,10 +2762,10 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="70" t="s">
-        <v>129</v>
+      <c r="A9" s="81" t="s">
+        <v>128</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="16">
         <f>ROUNDUP(((C5*C6)/96000),0)</f>
         <v>24</v>
@@ -2782,13 +2783,13 @@
         <v>6</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2804,10 +2805,10 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" s="54" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
-        <v>130</v>
+      <c r="A10" s="81" t="s">
+        <v>129</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="16">
         <f>ROUNDUP(C6*C7/1600,0)</f>
         <v>1875</v>
@@ -2825,13 +2826,13 @@
         <v>9375</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2847,10 +2848,10 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="17">
         <f>C9*C7</f>
         <v>1440</v>
@@ -2868,13 +2869,13 @@
         <v>360</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2890,25 +2891,25 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="69"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="20"/>
       <c r="F12" s="22">
         <f>SUM(C11:F11)</f>
         <v>3360</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2953,22 +2954,22 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -3013,13 +3014,13 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35"/>
       <c r="I16" s="37"/>
@@ -3058,15 +3059,15 @@
         <v>50</v>
       </c>
       <c r="G17" s="35"/>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3082,10 +3083,10 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="11">
         <v>3</v>
       </c>
@@ -3098,13 +3099,13 @@
       <c r="F18" s="11">
         <v>2</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3120,10 +3121,10 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="69"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="13">
         <v>50000</v>
       </c>
@@ -3137,13 +3138,13 @@
         <v>250000</v>
       </c>
       <c r="G19" s="35"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -3159,10 +3160,10 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="11">
         <v>4</v>
       </c>
@@ -3176,13 +3177,13 @@
         <v>4</v>
       </c>
       <c r="G20" s="35"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -3198,20 +3199,20 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3227,10 +3228,10 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
-        <v>130</v>
+      <c r="A22" s="81" t="s">
+        <v>129</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="16">
         <f>ROUNDUP(C18*C19/1600,0)</f>
         <v>94</v>
@@ -3248,13 +3249,13 @@
         <v>313</v>
       </c>
       <c r="G22" s="35"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3270,10 +3271,10 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="17">
         <f t="shared" ref="C23:F23" si="2">C22*C20</f>
         <v>376</v>
@@ -3291,13 +3292,13 @@
         <v>1252</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3313,25 +3314,25 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="69"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="20"/>
       <c r="F24" s="22">
         <f>SUM(C23:F23)</f>
         <v>2730</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3376,13 +3377,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="6"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
@@ -3407,15 +3408,15 @@
     </row>
     <row r="27" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="D27" s="26"/>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3431,21 +3432,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
+      <c r="D28" s="88"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3461,21 +3462,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="45">
         <v>60000</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
+      <c r="D29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3491,21 +3492,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="29">
         <v>100</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
+      <c r="D30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3521,15 +3522,15 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3545,10 +3546,10 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="47">
         <f>(C28*C29)/1600</f>
         <v>112.5</v>
@@ -3557,13 +3558,13 @@
         <f>C32*C30</f>
         <v>11250</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3579,19 +3580,19 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="13"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3607,19 +3608,19 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="13"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3635,19 +3636,19 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="70" t="s">
-        <v>131</v>
+      <c r="A35" s="81" t="s">
+        <v>130</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="13"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3664,13 +3665,13 @@
     </row>
     <row r="36" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="G36" s="1"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3686,23 +3687,23 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="48"/>
       <c r="D37" s="52">
         <f>SUM(D28:D34)</f>
         <v>11250</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -31555,26 +31556,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="H3:N12"/>
@@ -31591,6 +31572,26 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -31614,21 +31615,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -31731,15 +31732,15 @@
         <f t="shared" ref="E4:E11" si="2">D4/60</f>
         <v>0.33894216133942162</v>
       </c>
-      <c r="G4" s="101" t="s">
-        <v>111</v>
+      <c r="G4" s="95" t="s">
+        <v>110</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
@@ -31760,13 +31761,13 @@
         <f t="shared" si="2"/>
         <v>1.6890030441400303</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -31787,13 +31788,13 @@
         <f t="shared" si="2"/>
         <v>0.17287671232876714</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -31814,13 +31815,13 @@
         <f t="shared" si="2"/>
         <v>6.0774353120243527E-2</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
@@ -31841,13 +31842,13 @@
         <f t="shared" si="2"/>
         <v>0.34961187214611872</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -31868,13 +31869,13 @@
         <f t="shared" si="2"/>
         <v>0.62280821917808227</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
@@ -31895,13 +31896,13 @@
         <f t="shared" si="2"/>
         <v>0.4423915525114156</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
@@ -31923,47 +31924,47 @@
         <f t="shared" si="2"/>
         <v>3.6764079147640789</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="C12" s="25"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="E12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -31980,69 +31981,69 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="27">
         <v>200</v>
       </c>
       <c r="D17" s="29">
         <v>150</v>
       </c>
-      <c r="G17" s="72" t="s">
-        <v>132</v>
+      <c r="G17" s="92" t="s">
+        <v>131</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="31">
         <v>0.25</v>
       </c>
       <c r="D18" s="32">
         <v>0.7</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="69"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="33">
         <v>15</v>
       </c>
       <c r="D19" s="34">
         <v>15</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="36">
         <f t="shared" ref="C20:D20" si="4">C17*C18*C19</f>
         <v>750</v>
@@ -32051,45 +32052,45 @@
         <f t="shared" si="4"/>
         <v>1575</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="35"/>
       <c r="G24" s="37" t="s">
         <v>9</v>
@@ -32114,21 +32115,21 @@
         <v>49</v>
       </c>
       <c r="F25" s="35"/>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="11">
         <v>1</v>
       </c>
@@ -32138,19 +32139,19 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="13">
         <v>75000</v>
       </c>
@@ -32161,19 +32162,19 @@
         <v>100000</v>
       </c>
       <c r="F27" s="35"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="11">
         <v>2</v>
       </c>
@@ -32184,34 +32185,34 @@
         <v>16</v>
       </c>
       <c r="F28" s="35"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
     </row>
     <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="35"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
     </row>
     <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="16">
         <f t="shared" ref="C30:E30" si="5">C26*C27/1600</f>
         <v>46.875</v>
@@ -32225,19 +32226,19 @@
         <v>62.5</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
     </row>
     <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="17">
         <f t="shared" ref="C31:E31" si="6">C30*C28</f>
         <v>93.75</v>
@@ -32251,19 +32252,19 @@
         <v>1000</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="42">
@@ -32271,13 +32272,13 @@
         <v>1593.75</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
     </row>
     <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -32295,93 +32296,93 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="D35" s="26"/>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
     </row>
     <row r="36" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="29">
         <v>3</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
+      <c r="D36" s="88"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
     </row>
     <row r="37" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="45">
         <v>60000</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
+      <c r="D37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="29">
         <v>100</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
+      <c r="D38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
     </row>
     <row r="40" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="46">
         <f>(C36*C37)/1600</f>
         <v>112.5</v>
@@ -32390,91 +32391,91 @@
         <f>C40*C38</f>
         <v>11250</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
     </row>
     <row r="41" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="50">
         <v>5000</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
     </row>
     <row r="42" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="50">
         <v>2500</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
     </row>
     <row r="43" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="50">
         <v>1250</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
     </row>
     <row r="45" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="48"/>
       <c r="D45" s="51">
         <f>SUM(D36:D42)</f>
         <v>18750</v>
       </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
     </row>
     <row r="46" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
@@ -35352,13 +35353,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G4:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G17:M20"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="G25:M32"/>
     <mergeCell ref="G35:M45"/>
     <mergeCell ref="A22:M22"/>
@@ -35375,15 +35378,13 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G4:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G17:M20"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -35407,39 +35408,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="G3" s="72" t="s">
-        <v>133</v>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="G3" s="92" t="s">
+        <v>132</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -35453,19 +35454,19 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="11">
         <v>2</v>
       </c>
@@ -35475,19 +35476,19 @@
       <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="13">
         <v>150000</v>
       </c>
@@ -35497,19 +35498,19 @@
       <c r="E6" s="13">
         <v>150000</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="11">
         <v>5</v>
       </c>
@@ -35519,33 +35520,33 @@
       <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="16">
         <f t="shared" ref="C9:E9" si="0">C5*C6/1600</f>
         <v>187.5</v>
@@ -35558,19 +35559,19 @@
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="17">
         <f t="shared" ref="C10:E10" si="1">C9*C7</f>
         <v>937.5</v>
@@ -35583,68 +35584,68 @@
         <f t="shared" si="1"/>
         <v>468.75</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="22">
         <f>SUM(C10:E10)</f>
         <v>3281.25</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35682,22 +35683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="72" t="s">
-        <v>123</v>
+      <c r="G1" s="92" t="s">
+        <v>122</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44"/>
@@ -35706,43 +35707,43 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="90"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="E4" s="68"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55">
@@ -35753,13 +35754,13 @@
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
-      <c r="E5" s="90"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="E5" s="68"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
@@ -35768,45 +35769,45 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
-        <v>113</v>
+      <c r="A7" s="97" t="s">
+        <v>112</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="92"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="E8" s="70"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="55">
@@ -35815,15 +35816,15 @@
       <c r="B9" s="43">
         <v>4300</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="55">
@@ -35835,14 +35836,14 @@
       <c r="C10" s="43">
         <v>141000</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
     </row>
     <row r="11" spans="1:12" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44"/>
@@ -35850,45 +35851,45 @@
       <c r="C11" s="43"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
     </row>
     <row r="12" spans="1:12" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="88" t="s">
-        <v>127</v>
+      <c r="A12" s="97" t="s">
+        <v>126</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
     </row>
     <row r="13" spans="1:12" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="94"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="55">
@@ -35903,81 +35904,81 @@
       <c r="D14" s="43">
         <v>981140</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="E14" s="70"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+    </row>
+    <row r="17" spans="1:12" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-    </row>
-    <row r="17" spans="1:12" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="96" t="s">
+      <c r="C17" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
+      <c r="E17" s="75"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="55">
         <v>2020</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="65">
         <v>0.41</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <v>0.35</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="76">
         <v>0.24</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="E18" s="76"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
@@ -35986,76 +35987,76 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="55">
         <v>2020</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="77">
         <v>0.26</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="78">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="78">
         <v>0.12</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="77">
         <f>SUM(B22:D22)</f>
         <v>0.94000000000000006</v>
       </c>
       <c r="F22" s="35"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35"/>
@@ -36090,8 +36091,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36186,11 +36187,11 @@
       <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="58" t="s">
@@ -36219,11 +36220,11 @@
       <c r="C10" s="58"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="85" t="s">
-        <v>112</v>
+      <c r="A11" s="99" t="s">
+        <v>111</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
@@ -36232,7 +36233,7 @@
       <c r="B12" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="101" t="s">
         <v>93</v>
       </c>
     </row>
@@ -36243,13 +36244,13 @@
       <c r="B13" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="100"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -36260,49 +36261,56 @@
       <c r="A15" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="58" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="C16" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="61" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61" t="s">
+      <c r="B17" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="61" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58" t="s">
+      <c r="B18" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>110</v>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57" t="s">
+        <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="58"/>
